--- a/O_OPENFF/output_data/ingredient_count_PROD_FINAL.xlsx
+++ b/O_OPENFF/output_data/ingredient_count_PROD_FINAL.xlsx
@@ -19,7 +19,7 @@
     <t>id_ingredient</t>
   </si>
   <si>
-    <t>O_EAN13</t>
+    <t>count</t>
   </si>
   <si>
     <t>en:salt</t>
